--- a/pred_ohlcv/54_21/2019-11-02 GXC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-02 GXC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>18049.4005</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -600,7 +600,7 @@
         <v>24060.0537</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>24060.0537</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>24060.0537</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -964,7 +964,7 @@
         <v>25301.2224</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>30140.25209999999</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>29553.58609999999</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>29553.58609999999</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>29633.58609999999</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>29629.83979999999</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>30243.91099999999</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>30243.91099999999</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>30243.91099999999</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>29632.91099999999</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>29632.91099999999</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>29632.91099999999</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>29632.91099999999</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>27906.72059999999</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>28678.99309999999</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>28638.99309999999</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>28918.99309999999</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>28169.01799999999</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>28169.01799999999</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>28169.01799999999</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>30546.35339999999</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>30577.99839999999</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>21354.6125</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>69638.2087513</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>63389.9021513</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>64802.32088167001</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>63097.29878167</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>58377.15478167</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>58285.15478167</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>55976.56578167</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>55947.03811682</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>52775.18971682</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>55964.80171682</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>57281.33151682</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>57058.32751682</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>62702.81151682</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>62369.88731682</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>62146.88731682</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>60879.04521682</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>42754.62041682</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>42063.02871682</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>42934.53301682</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>42596.78951682</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>35309.31557932001</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>35164.40507932001</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>35164.40507932001</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-02 GXC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-02 GXC ohlcv.xlsx
@@ -600,7 +600,7 @@
         <v>24060.0537</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>24060.0537</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>24060.0537</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -964,7 +964,7 @@
         <v>25301.2224</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>30140.25209999999</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>29553.58609999999</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>29553.58609999999</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>29633.58609999999</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>29629.83979999999</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>30243.91099999999</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>30243.91099999999</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>30243.91099999999</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>29632.91099999999</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>29632.91099999999</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>29632.91099999999</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>29632.91099999999</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>27906.72059999999</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>28678.99309999999</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>28638.99309999999</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>28918.99309999999</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>28169.01799999999</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>28169.01799999999</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>28169.01799999999</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>30546.35339999999</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>30577.99839999999</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>21354.6125</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>69638.2087513</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>63389.9021513</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>64802.32088167001</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>63097.29878167</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>58377.15478167</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>58285.15478167</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>55976.56578167</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>56088.03811682</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>55947.03811682</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>55964.80171682</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>57281.33151682</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>57058.32751682</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>62702.81151682</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>62369.88731682</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>62146.88731682</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>60879.04521682</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>42754.62041682</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>42063.02871682</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>42934.53301682</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>42596.78951682</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>35309.31557932001</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>35164.40507932001</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>35164.40507932001</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
